--- a/Code/Results/Cases/Case_1_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002288605069237</v>
+        <v>1.029546641954758</v>
       </c>
       <c r="D2">
-        <v>1.034485066461396</v>
+        <v>1.037859051853081</v>
       </c>
       <c r="E2">
-        <v>1.016790245365094</v>
+        <v>1.038796045446549</v>
       </c>
       <c r="F2">
-        <v>1.023931422240941</v>
+        <v>1.048414767778013</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04720354078743</v>
+        <v>1.03706768453043</v>
       </c>
       <c r="J2">
-        <v>1.024401079163305</v>
+        <v>1.034692816641452</v>
       </c>
       <c r="K2">
-        <v>1.045483998965635</v>
+        <v>1.040648735333751</v>
       </c>
       <c r="L2">
-        <v>1.028020518115163</v>
+        <v>1.041583059497417</v>
       </c>
       <c r="M2">
-        <v>1.035067125895103</v>
+        <v>1.051174678021466</v>
       </c>
       <c r="N2">
-        <v>1.012026067339163</v>
+        <v>1.015562995983377</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006061450271322</v>
+        <v>1.030355857651603</v>
       </c>
       <c r="D3">
-        <v>1.036784699221084</v>
+        <v>1.038354697915657</v>
       </c>
       <c r="E3">
-        <v>1.019941589592976</v>
+        <v>1.039525645344808</v>
       </c>
       <c r="F3">
-        <v>1.027516046105765</v>
+        <v>1.0492504195831</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048100328107188</v>
+        <v>1.037212946084829</v>
       </c>
       <c r="J3">
-        <v>1.026388226959628</v>
+        <v>1.035143827496455</v>
       </c>
       <c r="K3">
-        <v>1.046967590752197</v>
+        <v>1.040955107276626</v>
       </c>
       <c r="L3">
-        <v>1.030325517045684</v>
+        <v>1.042122958772917</v>
       </c>
       <c r="M3">
-        <v>1.037808554999374</v>
+        <v>1.051822309373589</v>
       </c>
       <c r="N3">
-        <v>1.012695938563306</v>
+        <v>1.015713873211963</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008459640513278</v>
+        <v>1.030880201427476</v>
       </c>
       <c r="D4">
-        <v>1.038248646286899</v>
+        <v>1.03867572982534</v>
       </c>
       <c r="E4">
-        <v>1.021950516801854</v>
+        <v>1.039998796304486</v>
       </c>
       <c r="F4">
-        <v>1.029800802071059</v>
+        <v>1.049792352304787</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048662209403184</v>
+        <v>1.037306026020034</v>
       </c>
       <c r="J4">
-        <v>1.027649395696193</v>
+        <v>1.035435721874545</v>
       </c>
       <c r="K4">
-        <v>1.047906360642944</v>
+        <v>1.041152946656341</v>
       </c>
       <c r="L4">
-        <v>1.031791044502489</v>
+        <v>1.042472690340971</v>
       </c>
       <c r="M4">
-        <v>1.03955238496498</v>
+        <v>1.052241930750347</v>
       </c>
       <c r="N4">
-        <v>1.013120927102308</v>
+        <v>1.015811481069486</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009457832591044</v>
+        <v>1.031100807870976</v>
       </c>
       <c r="D5">
-        <v>1.038858441941417</v>
+        <v>1.03881076523843</v>
       </c>
       <c r="E5">
-        <v>1.022788044956911</v>
+        <v>1.040197958661639</v>
       </c>
       <c r="F5">
-        <v>1.030753240943457</v>
+        <v>1.050020468462421</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048894085802281</v>
+        <v>1.037344937230819</v>
       </c>
       <c r="J5">
-        <v>1.028173834925847</v>
+        <v>1.035558447391879</v>
       </c>
       <c r="K5">
-        <v>1.048296027224993</v>
+        <v>1.041236020296189</v>
       </c>
       <c r="L5">
-        <v>1.032401096966062</v>
+        <v>1.042619807120453</v>
       </c>
       <c r="M5">
-        <v>1.040278484391614</v>
+        <v>1.052418472048691</v>
       </c>
       <c r="N5">
-        <v>1.013297613391192</v>
+        <v>1.015852510197092</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009624855372697</v>
+        <v>1.031137858717636</v>
       </c>
       <c r="D6">
-        <v>1.038960501382395</v>
+        <v>1.038833442536147</v>
       </c>
       <c r="E6">
-        <v>1.022928263518497</v>
+        <v>1.040231413483867</v>
       </c>
       <c r="F6">
-        <v>1.030912693141008</v>
+        <v>1.050058786976443</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048932766339891</v>
+        <v>1.037351457694583</v>
       </c>
       <c r="J6">
-        <v>1.028261557141704</v>
+        <v>1.035579054278153</v>
       </c>
       <c r="K6">
-        <v>1.048361163651725</v>
+        <v>1.041249962936965</v>
       </c>
       <c r="L6">
-        <v>1.032503176904086</v>
+        <v>1.042644513887404</v>
       </c>
       <c r="M6">
-        <v>1.040399994169421</v>
+        <v>1.052448121827289</v>
       </c>
       <c r="N6">
-        <v>1.013327165088139</v>
+        <v>1.015859398848458</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008473017324379</v>
+        <v>1.03088314850666</v>
       </c>
       <c r="D7">
-        <v>1.038256816448229</v>
+        <v>1.038677533888469</v>
       </c>
       <c r="E7">
-        <v>1.021961735229111</v>
+        <v>1.040001456542947</v>
       </c>
       <c r="F7">
-        <v>1.029813560009238</v>
+        <v>1.049795399276409</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048665324707627</v>
+        <v>1.037306546817364</v>
       </c>
       <c r="J7">
-        <v>1.027656425708169</v>
+        <v>1.035437361688977</v>
       </c>
       <c r="K7">
-        <v>1.047911586890622</v>
+        <v>1.041154057077326</v>
       </c>
       <c r="L7">
-        <v>1.031799219638669</v>
+        <v>1.04247465577228</v>
       </c>
       <c r="M7">
-        <v>1.039562114426475</v>
+        <v>1.05224428918547</v>
       </c>
       <c r="N7">
-        <v>1.013123295707561</v>
+        <v>1.015812029323789</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003572768856446</v>
+        <v>1.029819968581593</v>
       </c>
       <c r="D8">
-        <v>1.035267292100161</v>
+        <v>1.038026491180804</v>
       </c>
       <c r="E8">
-        <v>1.017861637196346</v>
+        <v>1.039042398365352</v>
       </c>
       <c r="F8">
-        <v>1.025150204297415</v>
+        <v>1.048696928411944</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047510465081068</v>
+        <v>1.037116965134417</v>
       </c>
       <c r="J8">
-        <v>1.025077837880833</v>
+        <v>1.034845224631493</v>
       </c>
       <c r="K8">
-        <v>1.045989831106041</v>
+        <v>1.040752357939634</v>
       </c>
       <c r="L8">
-        <v>1.028804976978755</v>
+        <v>1.041765441272747</v>
       </c>
       <c r="M8">
-        <v>1.035999944752559</v>
+        <v>1.051393430953514</v>
       </c>
       <c r="N8">
-        <v>1.012254234782519</v>
+        <v>1.015613989462467</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9945933077504409</v>
+        <v>1.027952156081785</v>
       </c>
       <c r="D9">
-        <v>1.029809669599418</v>
+        <v>1.036881777273</v>
       </c>
       <c r="E9">
-        <v>1.010395767860948</v>
+        <v>1.037360550257118</v>
       </c>
       <c r="F9">
-        <v>1.016655342060486</v>
+        <v>1.046770641905514</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045331397913279</v>
+        <v>1.036775932333466</v>
       </c>
       <c r="J9">
-        <v>1.020338445613497</v>
+        <v>1.033802321611222</v>
       </c>
       <c r="K9">
-        <v>1.042436935519119</v>
+        <v>1.040041481260421</v>
       </c>
       <c r="L9">
-        <v>1.023322402949624</v>
+        <v>1.04051869612335</v>
       </c>
       <c r="M9">
-        <v>1.029483856293417</v>
+        <v>1.049898480186861</v>
       </c>
       <c r="N9">
-        <v>1.010655803753382</v>
+        <v>1.015264887336929</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9883539212689706</v>
+        <v>1.026710848709719</v>
       </c>
       <c r="D10">
-        <v>1.026035887933153</v>
+        <v>1.036120439239493</v>
       </c>
       <c r="E10">
-        <v>1.005242376859866</v>
+        <v>1.036244902902232</v>
       </c>
       <c r="F10">
-        <v>1.01078887829766</v>
+        <v>1.045492867245414</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043777218982</v>
+        <v>1.036543940521159</v>
       </c>
       <c r="J10">
-        <v>1.0170373460758</v>
+        <v>1.03310747841982</v>
       </c>
       <c r="K10">
-        <v>1.039950447161762</v>
+        <v>1.039565607553862</v>
       </c>
       <c r="L10">
-        <v>1.019517619312601</v>
+        <v>1.039689626695564</v>
       </c>
       <c r="M10">
-        <v>1.024966030716179</v>
+        <v>1.048904888293802</v>
       </c>
       <c r="N10">
-        <v>1.009541852589428</v>
+        <v>1.01503209321463</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9855870811225033</v>
+        <v>1.026174296263958</v>
       </c>
       <c r="D11">
-        <v>1.024367847175152</v>
+        <v>1.035791224823524</v>
       </c>
       <c r="E11">
-        <v>1.002965778620021</v>
+        <v>1.035763164324941</v>
       </c>
       <c r="F11">
-        <v>1.008196481942557</v>
+        <v>1.044941124753881</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0430790778164</v>
+        <v>1.036442395647424</v>
       </c>
       <c r="J11">
-        <v>1.015571994445685</v>
+        <v>1.032806720879955</v>
       </c>
       <c r="K11">
-        <v>1.03884440182194</v>
+        <v>1.039359102515786</v>
       </c>
       <c r="L11">
-        <v>1.017831980596033</v>
+        <v>1.039331146091661</v>
       </c>
       <c r="M11">
-        <v>1.022965462488553</v>
+        <v>1.048475395505545</v>
       </c>
       <c r="N11">
-        <v>1.009047260762139</v>
+        <v>1.014931282720544</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9845491045631737</v>
+        <v>1.025975140079289</v>
       </c>
       <c r="D12">
-        <v>1.023742993108872</v>
+        <v>1.035669009603099</v>
       </c>
       <c r="E12">
-        <v>1.00211306398583</v>
+        <v>1.035584429092806</v>
       </c>
       <c r="F12">
-        <v>1.007225354319152</v>
+        <v>1.044736416880705</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042815875729443</v>
+        <v>1.036404514254925</v>
       </c>
       <c r="J12">
-        <v>1.015022080677185</v>
+        <v>1.03269502460549</v>
       </c>
       <c r="K12">
-        <v>1.038429026252532</v>
+        <v>1.039282331368927</v>
       </c>
       <c r="L12">
-        <v>1.017199892687358</v>
+        <v>1.03919806888158</v>
       </c>
       <c r="M12">
-        <v>1.022215424876878</v>
+        <v>1.048315975578092</v>
       </c>
       <c r="N12">
-        <v>1.008861637568262</v>
+        <v>1.01489383633266</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9847722255521174</v>
+        <v>1.0260178532444</v>
       </c>
       <c r="D13">
-        <v>1.023877267640062</v>
+        <v>1.035695221996813</v>
       </c>
       <c r="E13">
-        <v>1.002296299795783</v>
+        <v>1.035622759146855</v>
       </c>
       <c r="F13">
-        <v>1.007434041330291</v>
+        <v>1.044780316797775</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042872510772147</v>
+        <v>1.03641264731039</v>
       </c>
       <c r="J13">
-        <v>1.015140296815307</v>
+        <v>1.032718982978693</v>
       </c>
       <c r="K13">
-        <v>1.038518333331622</v>
+        <v>1.039298802003655</v>
       </c>
       <c r="L13">
-        <v>1.017335751628505</v>
+        <v>1.03922661082031</v>
       </c>
       <c r="M13">
-        <v>1.022376629074112</v>
+        <v>1.048350166559863</v>
       </c>
       <c r="N13">
-        <v>1.008901541967138</v>
+        <v>1.014901868742084</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9855014934947915</v>
+        <v>1.026157831018337</v>
       </c>
       <c r="D14">
-        <v>1.024316305027799</v>
+        <v>1.035781121042057</v>
       </c>
       <c r="E14">
-        <v>1.002895439291178</v>
+        <v>1.035748385843384</v>
       </c>
       <c r="F14">
-        <v>1.008116377561588</v>
+        <v>1.044924198754341</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043057401224222</v>
+        <v>1.036439267682434</v>
       </c>
       <c r="J14">
-        <v>1.015526654272888</v>
+        <v>1.032797487646721</v>
       </c>
       <c r="K14">
-        <v>1.038810160143186</v>
+        <v>1.039352757926669</v>
       </c>
       <c r="L14">
-        <v>1.01777985514123</v>
+        <v>1.039320144278775</v>
       </c>
       <c r="M14">
-        <v>1.022903607334706</v>
+        <v>1.048462215492867</v>
       </c>
       <c r="N14">
-        <v>1.009031956470141</v>
+        <v>1.01492818740562</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9859494472022801</v>
+        <v>1.026244094984583</v>
       </c>
       <c r="D15">
-        <v>1.024586107091423</v>
+        <v>1.035834055572804</v>
       </c>
       <c r="E15">
-        <v>1.003263640812428</v>
+        <v>1.035825815678857</v>
       </c>
       <c r="F15">
-        <v>1.00853569035915</v>
+        <v>1.045012880228216</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043170800940818</v>
+        <v>1.036455647782824</v>
       </c>
       <c r="J15">
-        <v>1.015763950914319</v>
+        <v>1.032845859450155</v>
       </c>
       <c r="K15">
-        <v>1.038989358620213</v>
+        <v>1.039385993250699</v>
       </c>
       <c r="L15">
-        <v>1.018052684052593</v>
+        <v>1.039377783770524</v>
       </c>
       <c r="M15">
-        <v>1.023227368149275</v>
+        <v>1.048531267541258</v>
       </c>
       <c r="N15">
-        <v>1.009112053917513</v>
+        <v>1.014944403100529</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9885361360058436</v>
+        <v>1.026746477924031</v>
       </c>
       <c r="D16">
-        <v>1.026145860639091</v>
+        <v>1.03614229777321</v>
       </c>
       <c r="E16">
-        <v>1.005392490601667</v>
+        <v>1.03627690279342</v>
       </c>
       <c r="F16">
-        <v>1.01095979772781</v>
+        <v>1.045529517255302</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043823013597584</v>
+        <v>1.036550656803527</v>
       </c>
       <c r="J16">
-        <v>1.017133821029161</v>
+        <v>1.033127441224652</v>
       </c>
       <c r="K16">
-        <v>1.040023222054411</v>
+        <v>1.039579303282723</v>
       </c>
       <c r="L16">
-        <v>1.01962866612091</v>
+        <v>1.039713428789501</v>
       </c>
       <c r="M16">
-        <v>1.025097844605173</v>
+        <v>1.048933408038889</v>
       </c>
       <c r="N16">
-        <v>1.009574413149664</v>
+        <v>1.015038783524801</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9901409387640843</v>
+        <v>1.027061862883689</v>
       </c>
       <c r="D17">
-        <v>1.027115043830523</v>
+        <v>1.036335771895383</v>
       </c>
       <c r="E17">
-        <v>1.006715566793017</v>
+        <v>1.03656021907952</v>
       </c>
       <c r="F17">
-        <v>1.012466160472406</v>
+        <v>1.045854004453309</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044225321618635</v>
+        <v>1.036609961946749</v>
       </c>
       <c r="J17">
-        <v>1.017983330263525</v>
+        <v>1.033304101523175</v>
       </c>
       <c r="K17">
-        <v>1.040663783860045</v>
+        <v>1.039700442458959</v>
       </c>
       <c r="L17">
-        <v>1.020606863532205</v>
+        <v>1.039924108184735</v>
       </c>
       <c r="M17">
-        <v>1.026259087149923</v>
+        <v>1.049185859273589</v>
       </c>
       <c r="N17">
-        <v>1.009861112509129</v>
+        <v>1.015097983777421</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9910707400939205</v>
+        <v>1.027245912348691</v>
       </c>
       <c r="D18">
-        <v>1.027677086173327</v>
+        <v>1.036448665355411</v>
       </c>
       <c r="E18">
-        <v>1.007482960051872</v>
+        <v>1.036725602227611</v>
       </c>
       <c r="F18">
-        <v>1.013339786965527</v>
+        <v>1.046043421019286</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044457559418558</v>
+        <v>1.03664444832562</v>
       </c>
       <c r="J18">
-        <v>1.018475380770562</v>
+        <v>1.033407155411628</v>
       </c>
       <c r="K18">
-        <v>1.041034586963218</v>
+        <v>1.039771057514574</v>
       </c>
       <c r="L18">
-        <v>1.0211737659711</v>
+        <v>1.040047043202339</v>
       </c>
       <c r="M18">
-        <v>1.026932163665062</v>
+        <v>1.049333180996532</v>
       </c>
       <c r="N18">
-        <v>1.010027163014541</v>
+        <v>1.015132513372326</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9913867312958831</v>
+        <v>1.027308683799229</v>
       </c>
       <c r="D19">
-        <v>1.027868179057166</v>
+        <v>1.03648716638552</v>
       </c>
       <c r="E19">
-        <v>1.007743894988711</v>
+        <v>1.036782015520865</v>
       </c>
       <c r="F19">
-        <v>1.013636831865025</v>
+        <v>1.046108032326051</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044536338686658</v>
+        <v>1.0366561894036</v>
       </c>
       <c r="J19">
-        <v>1.018642577785206</v>
+        <v>1.033442295937453</v>
       </c>
       <c r="K19">
-        <v>1.04116054569269</v>
+        <v>1.039795128023255</v>
       </c>
       <c r="L19">
-        <v>1.021366450610236</v>
+        <v>1.040088969180253</v>
       </c>
       <c r="M19">
-        <v>1.027160951589934</v>
+        <v>1.049383425917572</v>
       </c>
       <c r="N19">
-        <v>1.010083584481625</v>
+        <v>1.015144286902581</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9899694086424713</v>
+        <v>1.027028015662329</v>
       </c>
       <c r="D20">
-        <v>1.027011398619694</v>
+        <v>1.036315009461744</v>
       </c>
       <c r="E20">
-        <v>1.006574063729082</v>
+        <v>1.036529808508801</v>
       </c>
       <c r="F20">
-        <v>1.012305062671627</v>
+        <v>1.045819174654539</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044182408962261</v>
+        <v>1.036603609952938</v>
       </c>
       <c r="J20">
-        <v>1.017892544729011</v>
+        <v>1.033285146405494</v>
       </c>
       <c r="K20">
-        <v>1.040595350820352</v>
+        <v>1.039687449848228</v>
       </c>
       <c r="L20">
-        <v>1.020502292813085</v>
+        <v>1.039901499170024</v>
       </c>
       <c r="M20">
-        <v>1.026134939064469</v>
+        <v>1.04915876626903</v>
       </c>
       <c r="N20">
-        <v>1.009830474555353</v>
+        <v>1.015091632241291</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9852870290249223</v>
+        <v>1.0261166070831</v>
       </c>
       <c r="D21">
-        <v>1.024187166298288</v>
+        <v>1.035755823974349</v>
       </c>
       <c r="E21">
-        <v>1.002719205722312</v>
+        <v>1.035711386267116</v>
       </c>
       <c r="F21">
-        <v>1.007915675766814</v>
+        <v>1.044881822631653</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043003063567408</v>
+        <v>1.036431433142526</v>
       </c>
       <c r="J21">
-        <v>1.015413038475766</v>
+        <v>1.0327743694583</v>
       </c>
       <c r="K21">
-        <v>1.038724350831787</v>
+        <v>1.039336871062222</v>
       </c>
       <c r="L21">
-        <v>1.017649244396371</v>
+        <v>1.039292598828648</v>
       </c>
       <c r="M21">
-        <v>1.022748619197158</v>
+        <v>1.048429216746223</v>
       </c>
       <c r="N21">
-        <v>1.008993605952998</v>
+        <v>1.014920437235626</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9822834856053573</v>
+        <v>1.025544398215874</v>
       </c>
       <c r="D22">
-        <v>1.02238088354876</v>
+        <v>1.035404645983492</v>
       </c>
       <c r="E22">
-        <v>1.00025435213897</v>
+        <v>1.03519799255126</v>
       </c>
       <c r="F22">
-        <v>1.005108282381186</v>
+        <v>1.044293826276242</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042239052460245</v>
+        <v>1.036322235463167</v>
       </c>
       <c r="J22">
-        <v>1.013821461148295</v>
+        <v>1.032453331216006</v>
       </c>
       <c r="K22">
-        <v>1.037521637679386</v>
+        <v>1.039116067216297</v>
       </c>
       <c r="L22">
-        <v>1.015820771947269</v>
+        <v>1.038910213650145</v>
       </c>
       <c r="M22">
-        <v>1.02057921791517</v>
+        <v>1.047971173613505</v>
       </c>
       <c r="N22">
-        <v>1.008456346379891</v>
+        <v>1.014812795279252</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9838815262390327</v>
+        <v>1.025847657703597</v>
       </c>
       <c r="D23">
-        <v>1.023341384079735</v>
+        <v>1.035590773086371</v>
       </c>
       <c r="E23">
-        <v>1.001565023477354</v>
+        <v>1.035470039680425</v>
       </c>
       <c r="F23">
-        <v>1.006601172040168</v>
+        <v>1.044605405208278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042646237609927</v>
+        <v>1.036380212368099</v>
       </c>
       <c r="J23">
-        <v>1.01466835284493</v>
+        <v>1.032623509032985</v>
       </c>
       <c r="K23">
-        <v>1.038161759739509</v>
+        <v>1.039233155160612</v>
       </c>
       <c r="L23">
-        <v>1.016793446286465</v>
+        <v>1.039112879661506</v>
       </c>
       <c r="M23">
-        <v>1.02173317453641</v>
+        <v>1.048213928395086</v>
       </c>
       <c r="N23">
-        <v>1.008742233293129</v>
+        <v>1.014869858615691</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9900469350114068</v>
+        <v>1.027043309484537</v>
       </c>
       <c r="D24">
-        <v>1.02705824151007</v>
+        <v>1.036324390978358</v>
       </c>
       <c r="E24">
-        <v>1.006638016246964</v>
+        <v>1.036543549336674</v>
       </c>
       <c r="F24">
-        <v>1.012377871288752</v>
+        <v>1.045834912282278</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044201806821087</v>
+        <v>1.03660648047101</v>
       </c>
       <c r="J24">
-        <v>1.017933577462371</v>
+        <v>1.033293711373674</v>
       </c>
       <c r="K24">
-        <v>1.0406262814889</v>
+        <v>1.039693320783973</v>
       </c>
       <c r="L24">
-        <v>1.020549555124621</v>
+        <v>1.039911715058479</v>
       </c>
       <c r="M24">
-        <v>1.026191049374845</v>
+        <v>1.049171008211857</v>
       </c>
       <c r="N24">
-        <v>1.009844322158246</v>
+        <v>1.015094502229947</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9969576820316068</v>
+        <v>1.028434350488041</v>
       </c>
       <c r="D25">
-        <v>1.031243858812223</v>
+        <v>1.037177403902733</v>
       </c>
       <c r="E25">
-        <v>1.012355841545298</v>
+        <v>1.037794372395094</v>
       </c>
       <c r="F25">
-        <v>1.018886011735321</v>
+        <v>1.047267511261249</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045912270116849</v>
+        <v>1.036864918144286</v>
       </c>
       <c r="J25">
-        <v>1.021587867890776</v>
+        <v>1.03407186769265</v>
       </c>
       <c r="K25">
-        <v>1.043375769836908</v>
+        <v>1.040225610680041</v>
       </c>
       <c r="L25">
-        <v>1.024765329839117</v>
+        <v>1.04084064709585</v>
       </c>
       <c r="M25">
-        <v>1.031198053980408</v>
+        <v>1.050284432222883</v>
       </c>
       <c r="N25">
-        <v>1.011077305429609</v>
+        <v>1.015355151149125</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_232/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_232/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029546641954758</v>
+        <v>1.002288605069236</v>
       </c>
       <c r="D2">
-        <v>1.037859051853081</v>
+        <v>1.034485066461396</v>
       </c>
       <c r="E2">
-        <v>1.038796045446549</v>
+        <v>1.016790245365094</v>
       </c>
       <c r="F2">
-        <v>1.048414767778013</v>
+        <v>1.02393142224094</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03706768453043</v>
+        <v>1.04720354078743</v>
       </c>
       <c r="J2">
-        <v>1.034692816641452</v>
+        <v>1.024401079163304</v>
       </c>
       <c r="K2">
-        <v>1.040648735333751</v>
+        <v>1.045483998965635</v>
       </c>
       <c r="L2">
-        <v>1.041583059497417</v>
+        <v>1.028020518115162</v>
       </c>
       <c r="M2">
-        <v>1.051174678021466</v>
+        <v>1.035067125895102</v>
       </c>
       <c r="N2">
-        <v>1.015562995983377</v>
+        <v>1.012026067339163</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030355857651603</v>
+        <v>1.006061450271322</v>
       </c>
       <c r="D3">
-        <v>1.038354697915657</v>
+        <v>1.036784699221085</v>
       </c>
       <c r="E3">
-        <v>1.039525645344808</v>
+        <v>1.019941589592976</v>
       </c>
       <c r="F3">
-        <v>1.0492504195831</v>
+        <v>1.027516046105765</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037212946084829</v>
+        <v>1.048100328107189</v>
       </c>
       <c r="J3">
-        <v>1.035143827496455</v>
+        <v>1.026388226959628</v>
       </c>
       <c r="K3">
-        <v>1.040955107276626</v>
+        <v>1.046967590752197</v>
       </c>
       <c r="L3">
-        <v>1.042122958772917</v>
+        <v>1.030325517045684</v>
       </c>
       <c r="M3">
-        <v>1.051822309373589</v>
+        <v>1.037808554999374</v>
       </c>
       <c r="N3">
-        <v>1.015713873211963</v>
+        <v>1.012695938563306</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030880201427476</v>
+        <v>1.008459640513278</v>
       </c>
       <c r="D4">
-        <v>1.03867572982534</v>
+        <v>1.038248646286898</v>
       </c>
       <c r="E4">
-        <v>1.039998796304486</v>
+        <v>1.021950516801853</v>
       </c>
       <c r="F4">
-        <v>1.049792352304787</v>
+        <v>1.029800802071059</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037306026020034</v>
+        <v>1.048662209403184</v>
       </c>
       <c r="J4">
-        <v>1.035435721874545</v>
+        <v>1.027649395696192</v>
       </c>
       <c r="K4">
-        <v>1.041152946656341</v>
+        <v>1.047906360642944</v>
       </c>
       <c r="L4">
-        <v>1.042472690340971</v>
+        <v>1.031791044502489</v>
       </c>
       <c r="M4">
-        <v>1.052241930750347</v>
+        <v>1.039552384964979</v>
       </c>
       <c r="N4">
-        <v>1.015811481069486</v>
+        <v>1.013120927102308</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031100807870976</v>
+        <v>1.009457832591043</v>
       </c>
       <c r="D5">
-        <v>1.03881076523843</v>
+        <v>1.038858441941417</v>
       </c>
       <c r="E5">
-        <v>1.040197958661639</v>
+        <v>1.02278804495691</v>
       </c>
       <c r="F5">
-        <v>1.050020468462421</v>
+        <v>1.030753240943456</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037344937230819</v>
+        <v>1.04889408580228</v>
       </c>
       <c r="J5">
-        <v>1.035558447391879</v>
+        <v>1.028173834925846</v>
       </c>
       <c r="K5">
-        <v>1.041236020296189</v>
+        <v>1.048296027224993</v>
       </c>
       <c r="L5">
-        <v>1.042619807120453</v>
+        <v>1.032401096966061</v>
       </c>
       <c r="M5">
-        <v>1.052418472048691</v>
+        <v>1.040278484391614</v>
       </c>
       <c r="N5">
-        <v>1.015852510197092</v>
+        <v>1.013297613391192</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031137858717636</v>
+        <v>1.009624855372697</v>
       </c>
       <c r="D6">
-        <v>1.038833442536147</v>
+        <v>1.038960501382395</v>
       </c>
       <c r="E6">
-        <v>1.040231413483867</v>
+        <v>1.022928263518496</v>
       </c>
       <c r="F6">
-        <v>1.050058786976443</v>
+        <v>1.030912693141008</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037351457694583</v>
+        <v>1.04893276633989</v>
       </c>
       <c r="J6">
-        <v>1.035579054278153</v>
+        <v>1.028261557141704</v>
       </c>
       <c r="K6">
-        <v>1.041249962936965</v>
+        <v>1.048361163651725</v>
       </c>
       <c r="L6">
-        <v>1.042644513887404</v>
+        <v>1.032503176904086</v>
       </c>
       <c r="M6">
-        <v>1.052448121827289</v>
+        <v>1.040399994169421</v>
       </c>
       <c r="N6">
-        <v>1.015859398848458</v>
+        <v>1.013327165088139</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03088314850666</v>
+        <v>1.008473017324379</v>
       </c>
       <c r="D7">
-        <v>1.038677533888469</v>
+        <v>1.038256816448228</v>
       </c>
       <c r="E7">
-        <v>1.040001456542947</v>
+        <v>1.02196173522911</v>
       </c>
       <c r="F7">
-        <v>1.049795399276409</v>
+        <v>1.029813560009237</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037306546817364</v>
+        <v>1.048665324707626</v>
       </c>
       <c r="J7">
-        <v>1.035437361688977</v>
+        <v>1.027656425708169</v>
       </c>
       <c r="K7">
-        <v>1.041154057077326</v>
+        <v>1.047911586890622</v>
       </c>
       <c r="L7">
-        <v>1.04247465577228</v>
+        <v>1.031799219638668</v>
       </c>
       <c r="M7">
-        <v>1.05224428918547</v>
+        <v>1.039562114426474</v>
       </c>
       <c r="N7">
-        <v>1.015812029323789</v>
+        <v>1.01312329570756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029819968581593</v>
+        <v>1.003572768856445</v>
       </c>
       <c r="D8">
-        <v>1.038026491180804</v>
+        <v>1.035267292100161</v>
       </c>
       <c r="E8">
-        <v>1.039042398365352</v>
+        <v>1.017861637196345</v>
       </c>
       <c r="F8">
-        <v>1.048696928411944</v>
+        <v>1.025150204297414</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037116965134417</v>
+        <v>1.047510465081067</v>
       </c>
       <c r="J8">
-        <v>1.034845224631493</v>
+        <v>1.025077837880832</v>
       </c>
       <c r="K8">
-        <v>1.040752357939634</v>
+        <v>1.045989831106041</v>
       </c>
       <c r="L8">
-        <v>1.041765441272747</v>
+        <v>1.028804976978754</v>
       </c>
       <c r="M8">
-        <v>1.051393430953514</v>
+        <v>1.035999944752559</v>
       </c>
       <c r="N8">
-        <v>1.015613989462467</v>
+        <v>1.012254234782518</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027952156081785</v>
+        <v>0.9945933077504406</v>
       </c>
       <c r="D9">
-        <v>1.036881777273</v>
+        <v>1.029809669599418</v>
       </c>
       <c r="E9">
-        <v>1.037360550257118</v>
+        <v>1.010395767860948</v>
       </c>
       <c r="F9">
-        <v>1.046770641905514</v>
+        <v>1.016655342060486</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036775932333466</v>
+        <v>1.045331397913279</v>
       </c>
       <c r="J9">
-        <v>1.033802321611222</v>
+        <v>1.020338445613497</v>
       </c>
       <c r="K9">
-        <v>1.040041481260421</v>
+        <v>1.042436935519119</v>
       </c>
       <c r="L9">
-        <v>1.04051869612335</v>
+        <v>1.023322402949624</v>
       </c>
       <c r="M9">
-        <v>1.049898480186861</v>
+        <v>1.029483856293417</v>
       </c>
       <c r="N9">
-        <v>1.015264887336929</v>
+        <v>1.010655803753382</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026710848709719</v>
+        <v>0.9883539212689703</v>
       </c>
       <c r="D10">
-        <v>1.036120439239493</v>
+        <v>1.026035887933153</v>
       </c>
       <c r="E10">
-        <v>1.036244902902232</v>
+        <v>1.005242376859866</v>
       </c>
       <c r="F10">
-        <v>1.045492867245414</v>
+        <v>1.01078887829766</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036543940521159</v>
+        <v>1.043777218982</v>
       </c>
       <c r="J10">
-        <v>1.03310747841982</v>
+        <v>1.0170373460758</v>
       </c>
       <c r="K10">
-        <v>1.039565607553862</v>
+        <v>1.039950447161762</v>
       </c>
       <c r="L10">
-        <v>1.039689626695564</v>
+        <v>1.019517619312601</v>
       </c>
       <c r="M10">
-        <v>1.048904888293802</v>
+        <v>1.024966030716179</v>
       </c>
       <c r="N10">
-        <v>1.01503209321463</v>
+        <v>1.009541852589428</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026174296263958</v>
+        <v>0.9855870811225018</v>
       </c>
       <c r="D11">
-        <v>1.035791224823524</v>
+        <v>1.024367847175151</v>
       </c>
       <c r="E11">
-        <v>1.035763164324941</v>
+        <v>1.00296577862002</v>
       </c>
       <c r="F11">
-        <v>1.044941124753881</v>
+        <v>1.008196481942555</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036442395647424</v>
+        <v>1.043079077816399</v>
       </c>
       <c r="J11">
-        <v>1.032806720879955</v>
+        <v>1.015571994445684</v>
       </c>
       <c r="K11">
-        <v>1.039359102515786</v>
+        <v>1.03884440182194</v>
       </c>
       <c r="L11">
-        <v>1.039331146091661</v>
+        <v>1.017831980596032</v>
       </c>
       <c r="M11">
-        <v>1.048475395505545</v>
+        <v>1.022965462488552</v>
       </c>
       <c r="N11">
-        <v>1.014931282720544</v>
+        <v>1.009047260762139</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025975140079289</v>
+        <v>0.9845491045631735</v>
       </c>
       <c r="D12">
-        <v>1.035669009603099</v>
+        <v>1.023742993108872</v>
       </c>
       <c r="E12">
-        <v>1.035584429092806</v>
+        <v>1.00211306398583</v>
       </c>
       <c r="F12">
-        <v>1.044736416880705</v>
+        <v>1.007225354319152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036404514254925</v>
+        <v>1.042815875729443</v>
       </c>
       <c r="J12">
-        <v>1.03269502460549</v>
+        <v>1.015022080677185</v>
       </c>
       <c r="K12">
-        <v>1.039282331368927</v>
+        <v>1.038429026252532</v>
       </c>
       <c r="L12">
-        <v>1.03919806888158</v>
+        <v>1.017199892687358</v>
       </c>
       <c r="M12">
-        <v>1.048315975578092</v>
+        <v>1.022215424876878</v>
       </c>
       <c r="N12">
-        <v>1.01489383633266</v>
+        <v>1.008861637568262</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.0260178532444</v>
+        <v>0.9847722255521173</v>
       </c>
       <c r="D13">
-        <v>1.035695221996813</v>
+        <v>1.023877267640062</v>
       </c>
       <c r="E13">
-        <v>1.035622759146855</v>
+        <v>1.002296299795783</v>
       </c>
       <c r="F13">
-        <v>1.044780316797775</v>
+        <v>1.007434041330291</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03641264731039</v>
+        <v>1.042872510772147</v>
       </c>
       <c r="J13">
-        <v>1.032718982978693</v>
+        <v>1.015140296815307</v>
       </c>
       <c r="K13">
-        <v>1.039298802003655</v>
+        <v>1.038518333331622</v>
       </c>
       <c r="L13">
-        <v>1.03922661082031</v>
+        <v>1.017335751628505</v>
       </c>
       <c r="M13">
-        <v>1.048350166559863</v>
+        <v>1.022376629074112</v>
       </c>
       <c r="N13">
-        <v>1.014901868742084</v>
+        <v>1.008901541967138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026157831018337</v>
+        <v>0.9855014934947902</v>
       </c>
       <c r="D14">
-        <v>1.035781121042057</v>
+        <v>1.024316305027799</v>
       </c>
       <c r="E14">
-        <v>1.035748385843384</v>
+        <v>1.002895439291177</v>
       </c>
       <c r="F14">
-        <v>1.044924198754341</v>
+        <v>1.008116377561586</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036439267682434</v>
+        <v>1.043057401224222</v>
       </c>
       <c r="J14">
-        <v>1.032797487646721</v>
+        <v>1.015526654272887</v>
       </c>
       <c r="K14">
-        <v>1.039352757926669</v>
+        <v>1.038810160143186</v>
       </c>
       <c r="L14">
-        <v>1.039320144278775</v>
+        <v>1.017779855141229</v>
       </c>
       <c r="M14">
-        <v>1.048462215492867</v>
+        <v>1.022903607334704</v>
       </c>
       <c r="N14">
-        <v>1.01492818740562</v>
+        <v>1.00903195647014</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026244094984583</v>
+        <v>0.9859494472022799</v>
       </c>
       <c r="D15">
-        <v>1.035834055572804</v>
+        <v>1.024586107091423</v>
       </c>
       <c r="E15">
-        <v>1.035825815678857</v>
+        <v>1.003263640812428</v>
       </c>
       <c r="F15">
-        <v>1.045012880228216</v>
+        <v>1.00853569035915</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036455647782824</v>
+        <v>1.043170800940817</v>
       </c>
       <c r="J15">
-        <v>1.032845859450155</v>
+        <v>1.015763950914319</v>
       </c>
       <c r="K15">
-        <v>1.039385993250699</v>
+        <v>1.038989358620213</v>
       </c>
       <c r="L15">
-        <v>1.039377783770524</v>
+        <v>1.018052684052593</v>
       </c>
       <c r="M15">
-        <v>1.048531267541258</v>
+        <v>1.023227368149275</v>
       </c>
       <c r="N15">
-        <v>1.014944403100529</v>
+        <v>1.009112053917513</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026746477924031</v>
+        <v>0.9885361360058432</v>
       </c>
       <c r="D16">
-        <v>1.03614229777321</v>
+        <v>1.026145860639091</v>
       </c>
       <c r="E16">
-        <v>1.03627690279342</v>
+        <v>1.005392490601667</v>
       </c>
       <c r="F16">
-        <v>1.045529517255302</v>
+        <v>1.010959797727809</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036550656803527</v>
+        <v>1.043823013597584</v>
       </c>
       <c r="J16">
-        <v>1.033127441224652</v>
+        <v>1.017133821029161</v>
       </c>
       <c r="K16">
-        <v>1.039579303282723</v>
+        <v>1.040023222054412</v>
       </c>
       <c r="L16">
-        <v>1.039713428789501</v>
+        <v>1.01962866612091</v>
       </c>
       <c r="M16">
-        <v>1.048933408038889</v>
+        <v>1.025097844605173</v>
       </c>
       <c r="N16">
-        <v>1.015038783524801</v>
+        <v>1.009574413149664</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027061862883689</v>
+        <v>0.9901409387640837</v>
       </c>
       <c r="D17">
-        <v>1.036335771895383</v>
+        <v>1.027115043830522</v>
       </c>
       <c r="E17">
-        <v>1.03656021907952</v>
+        <v>1.006715566793017</v>
       </c>
       <c r="F17">
-        <v>1.045854004453309</v>
+        <v>1.012466160472406</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036609961946749</v>
+        <v>1.044225321618635</v>
       </c>
       <c r="J17">
-        <v>1.033304101523175</v>
+        <v>1.017983330263524</v>
       </c>
       <c r="K17">
-        <v>1.039700442458959</v>
+        <v>1.040663783860044</v>
       </c>
       <c r="L17">
-        <v>1.039924108184735</v>
+        <v>1.020606863532205</v>
       </c>
       <c r="M17">
-        <v>1.049185859273589</v>
+        <v>1.026259087149923</v>
       </c>
       <c r="N17">
-        <v>1.015097983777421</v>
+        <v>1.009861112509129</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027245912348691</v>
+        <v>0.9910707400939194</v>
       </c>
       <c r="D18">
-        <v>1.036448665355411</v>
+        <v>1.027677086173326</v>
       </c>
       <c r="E18">
-        <v>1.036725602227611</v>
+        <v>1.007482960051871</v>
       </c>
       <c r="F18">
-        <v>1.046043421019286</v>
+        <v>1.013339786965526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03664444832562</v>
+        <v>1.044457559418558</v>
       </c>
       <c r="J18">
-        <v>1.033407155411628</v>
+        <v>1.018475380770561</v>
       </c>
       <c r="K18">
-        <v>1.039771057514574</v>
+        <v>1.041034586963217</v>
       </c>
       <c r="L18">
-        <v>1.040047043202339</v>
+        <v>1.021173765971099</v>
       </c>
       <c r="M18">
-        <v>1.049333180996532</v>
+        <v>1.026932163665061</v>
       </c>
       <c r="N18">
-        <v>1.015132513372326</v>
+        <v>1.010027163014541</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027308683799229</v>
+        <v>0.9913867312958827</v>
       </c>
       <c r="D19">
-        <v>1.03648716638552</v>
+        <v>1.027868179057165</v>
       </c>
       <c r="E19">
-        <v>1.036782015520865</v>
+        <v>1.00774389498871</v>
       </c>
       <c r="F19">
-        <v>1.046108032326051</v>
+        <v>1.013636831865024</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.0366561894036</v>
+        <v>1.044536338686658</v>
       </c>
       <c r="J19">
-        <v>1.033442295937453</v>
+        <v>1.018642577785205</v>
       </c>
       <c r="K19">
-        <v>1.039795128023255</v>
+        <v>1.04116054569269</v>
       </c>
       <c r="L19">
-        <v>1.040088969180253</v>
+        <v>1.021366450610236</v>
       </c>
       <c r="M19">
-        <v>1.049383425917572</v>
+        <v>1.027160951589933</v>
       </c>
       <c r="N19">
-        <v>1.015144286902581</v>
+        <v>1.010083584481625</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027028015662329</v>
+        <v>0.9899694086424707</v>
       </c>
       <c r="D20">
-        <v>1.036315009461744</v>
+        <v>1.027011398619694</v>
       </c>
       <c r="E20">
-        <v>1.036529808508801</v>
+        <v>1.006574063729081</v>
       </c>
       <c r="F20">
-        <v>1.045819174654539</v>
+        <v>1.012305062671626</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036603609952938</v>
+        <v>1.04418240896226</v>
       </c>
       <c r="J20">
-        <v>1.033285146405494</v>
+        <v>1.017892544729011</v>
       </c>
       <c r="K20">
-        <v>1.039687449848228</v>
+        <v>1.040595350820352</v>
       </c>
       <c r="L20">
-        <v>1.039901499170024</v>
+        <v>1.020502292813084</v>
       </c>
       <c r="M20">
-        <v>1.04915876626903</v>
+        <v>1.026134939064469</v>
       </c>
       <c r="N20">
-        <v>1.015091632241291</v>
+        <v>1.009830474555353</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0261166070831</v>
+        <v>0.9852870290249216</v>
       </c>
       <c r="D21">
-        <v>1.035755823974349</v>
+        <v>1.024187166298288</v>
       </c>
       <c r="E21">
-        <v>1.035711386267116</v>
+        <v>1.002719205722311</v>
       </c>
       <c r="F21">
-        <v>1.044881822631653</v>
+        <v>1.007915675766814</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036431433142526</v>
+        <v>1.043003063567408</v>
       </c>
       <c r="J21">
-        <v>1.0327743694583</v>
+        <v>1.015413038475766</v>
       </c>
       <c r="K21">
-        <v>1.039336871062222</v>
+        <v>1.038724350831786</v>
       </c>
       <c r="L21">
-        <v>1.039292598828648</v>
+        <v>1.01764924439637</v>
       </c>
       <c r="M21">
-        <v>1.048429216746223</v>
+        <v>1.022748619197157</v>
       </c>
       <c r="N21">
-        <v>1.014920437235626</v>
+        <v>1.008993605952998</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025544398215874</v>
+        <v>0.9822834856053573</v>
       </c>
       <c r="D22">
-        <v>1.035404645983492</v>
+        <v>1.02238088354876</v>
       </c>
       <c r="E22">
-        <v>1.03519799255126</v>
+        <v>1.00025435213897</v>
       </c>
       <c r="F22">
-        <v>1.044293826276242</v>
+        <v>1.005108282381185</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036322235463167</v>
+        <v>1.042239052460245</v>
       </c>
       <c r="J22">
-        <v>1.032453331216006</v>
+        <v>1.013821461148294</v>
       </c>
       <c r="K22">
-        <v>1.039116067216297</v>
+        <v>1.037521637679386</v>
       </c>
       <c r="L22">
-        <v>1.038910213650145</v>
+        <v>1.015820771947268</v>
       </c>
       <c r="M22">
-        <v>1.047971173613505</v>
+        <v>1.02057921791517</v>
       </c>
       <c r="N22">
-        <v>1.014812795279252</v>
+        <v>1.008456346379891</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025847657703597</v>
+        <v>0.9838815262390315</v>
       </c>
       <c r="D23">
-        <v>1.035590773086371</v>
+        <v>1.023341384079734</v>
       </c>
       <c r="E23">
-        <v>1.035470039680425</v>
+        <v>1.001565023477353</v>
       </c>
       <c r="F23">
-        <v>1.044605405208278</v>
+        <v>1.006601172040167</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036380212368099</v>
+        <v>1.042646237609926</v>
       </c>
       <c r="J23">
-        <v>1.032623509032985</v>
+        <v>1.014668352844929</v>
       </c>
       <c r="K23">
-        <v>1.039233155160612</v>
+        <v>1.038161759739509</v>
       </c>
       <c r="L23">
-        <v>1.039112879661506</v>
+        <v>1.016793446286464</v>
       </c>
       <c r="M23">
-        <v>1.048213928395086</v>
+        <v>1.021733174536409</v>
       </c>
       <c r="N23">
-        <v>1.014869858615691</v>
+        <v>1.008742233293129</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027043309484537</v>
+        <v>0.9900469350114068</v>
       </c>
       <c r="D24">
-        <v>1.036324390978358</v>
+        <v>1.02705824151007</v>
       </c>
       <c r="E24">
-        <v>1.036543549336674</v>
+        <v>1.006638016246964</v>
       </c>
       <c r="F24">
-        <v>1.045834912282278</v>
+        <v>1.012377871288752</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03660648047101</v>
+        <v>1.044201806821086</v>
       </c>
       <c r="J24">
-        <v>1.033293711373674</v>
+        <v>1.017933577462371</v>
       </c>
       <c r="K24">
-        <v>1.039693320783973</v>
+        <v>1.0406262814889</v>
       </c>
       <c r="L24">
-        <v>1.039911715058479</v>
+        <v>1.02054955512462</v>
       </c>
       <c r="M24">
-        <v>1.049171008211857</v>
+        <v>1.026191049374845</v>
       </c>
       <c r="N24">
-        <v>1.015094502229947</v>
+        <v>1.009844322158246</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028434350488041</v>
+        <v>0.9969576820316063</v>
       </c>
       <c r="D25">
-        <v>1.037177403902733</v>
+        <v>1.031243858812223</v>
       </c>
       <c r="E25">
-        <v>1.037794372395094</v>
+        <v>1.012355841545298</v>
       </c>
       <c r="F25">
-        <v>1.047267511261249</v>
+        <v>1.018886011735321</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036864918144286</v>
+        <v>1.045912270116848</v>
       </c>
       <c r="J25">
-        <v>1.03407186769265</v>
+        <v>1.021587867890776</v>
       </c>
       <c r="K25">
-        <v>1.040225610680041</v>
+        <v>1.043375769836907</v>
       </c>
       <c r="L25">
-        <v>1.04084064709585</v>
+        <v>1.024765329839116</v>
       </c>
       <c r="M25">
-        <v>1.050284432222883</v>
+        <v>1.031198053980407</v>
       </c>
       <c r="N25">
-        <v>1.015355151149125</v>
+        <v>1.011077305429609</v>
       </c>
     </row>
   </sheetData>
